--- a/biology/Botanique/Tolpis/Tolpis.xlsx
+++ b/biology/Botanique/Tolpis/Tolpis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tolpis, dont le nom vernaculaire français généralement employé est trépane, est un genre de plantes à fleurs de la famille des Astéracées (ou Composées). Il regroupe quelques plantes méditerranéennes. Comme pour toutes les Composées, les fleurs (ou fleurons) sont groupées en un capitule entouré d'un involucre de bractées. Les fleurs des trépanes sont toutes ligulées. La distinction avec d'autres genres voisins se fait au niveau des fruits et des bractées : les fruits sont de deux sortes, ceux du bord du capitule différents de ceux du milieu. Ces derniers ont une aigrette de poils lisses non portée par un bec. Les bractées sont nombreuses et étroites.
 L'espèce la plus connue et la plus spectaculaire est Tolpis barbata, la trépane barbue, à ligules périphériques jaune pâle et à ligules centrales pourpres ou brunes, parfois appelée œil du Christ.
@@ -513,7 +525,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tolpis barbata (L.) Gaertner - Trépane barbue
 Tolpis glabrescens F.Kammer, 1976
@@ -547,9 +561,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (20 janvier 2018)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (20 janvier 2018) :
 Tolpis azorica (Nutt.) P. Silva
 Tolpis barbata (L.) Gaertn.
 Tolpis calderae Bolle
